--- a/data_exploration/acl/tag_stats/multiwords.xlsx
+++ b/data_exploration/acl/tag_stats/multiwords.xlsx
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.514521863600683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -518,10 +518,10 @@
         <v>0.3332635066938356</v>
       </c>
       <c r="F3">
-        <v>465</v>
+        <v>184</v>
       </c>
       <c r="G3">
-        <v>1.957729875378916</v>
+        <v>0.3484782485180205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -666,22 +666,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.715210355987055</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.703377386196769</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2.065491183879093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -701,10 +701,10 @@
         <v>0.09810333551340746</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G12">
-        <v>0.03791948429501359</v>
+        <v>0.1278046009656348</v>
       </c>
     </row>
     <row r="13" spans="1:7">
